--- a/문서/Obstacle_Pattern_Table.xlsx
+++ b/문서/Obstacle_Pattern_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Pattern Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,14 @@
   </si>
   <si>
     <t>Obstacle Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_Offset Multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -121,13 +129,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +163,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -456,9 +486,10 @@
     <col min="2" max="2" width="12.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +502,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -485,13 +519,16 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -499,50 +536,53 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -553,15 +593,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -570,35 +610,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -606,13 +646,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -620,66 +663,66 @@
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -690,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -704,10 +747,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
